--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1485.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1485.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.563213496424253</v>
+        <v>1.48602283000946</v>
       </c>
       <c r="B1">
-        <v>2.597534400235599</v>
+        <v>3.922909021377563</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>3.676296234130859</v>
       </c>
       <c r="D1">
-        <v>1.33154945520663</v>
+        <v>1.544712066650391</v>
       </c>
       <c r="E1">
-        <v>0.5639841192354842</v>
+        <v>0.990425169467926</v>
       </c>
     </row>
   </sheetData>
